--- a/data/shop_inventory.xlsx
+++ b/data/shop_inventory.xlsx
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>43</v>
+        <v>41.5</v>
       </c>
       <c r="C2" t="n">
         <v>50</v>
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27</v>
+        <v>24.5</v>
       </c>
       <c r="C4" t="n">
         <v>45</v>
